--- a/INTERMAC/MASTER One/ТО Master ONE на 2022 год.xlsx
+++ b/INTERMAC/MASTER One/ТО Master ONE на 2022 год.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" state="visible" r:id="rId2"/>
@@ -539,9 +539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:colOff>2513880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,7 +555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9024480" y="1425240"/>
-          <a:ext cx="2332440" cy="5075640"/>
+          <a:ext cx="2331720" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,13 +572,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2685960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5031000</xdr:colOff>
+      <xdr:colOff>5030280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -591,8 +591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16207800">
-          <a:off x="10162800" y="2803680"/>
-          <a:ext cx="5075640" cy="2345040"/>
+          <a:off x="10162800" y="2804760"/>
+          <a:ext cx="5074920" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,9 +613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
+      <xdr:colOff>16200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2399400</xdr:rowOff>
+      <xdr:rowOff>2398680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,7 +629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8892360" y="6553080"/>
-          <a:ext cx="5075640" cy="2345040"/>
+          <a:ext cx="5074920" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,9 +650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2387160</xdr:rowOff>
+      <xdr:rowOff>2386440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,7 +666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8892000" y="8985240"/>
-          <a:ext cx="5075640" cy="2332440"/>
+          <a:ext cx="5074920" cy="2331720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,9 +687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
+      <xdr:colOff>16200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2383560</xdr:rowOff>
+      <xdr:rowOff>2382840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -703,7 +703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8892360" y="16537680"/>
-          <a:ext cx="5075640" cy="2345040"/>
+          <a:ext cx="5074920" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,9 +724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3717720</xdr:colOff>
+      <xdr:colOff>3717000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4296240</xdr:rowOff>
+      <xdr:rowOff>4295520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -740,7 +740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10239120" y="18946800"/>
-          <a:ext cx="2320920" cy="4238640"/>
+          <a:ext cx="2320200" cy="4237920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,9 +761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2580120</xdr:colOff>
+      <xdr:colOff>2579400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5148720</xdr:rowOff>
+      <xdr:rowOff>5148000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -777,7 +777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9075240" y="23336640"/>
-          <a:ext cx="2347200" cy="5077800"/>
+          <a:ext cx="2346480" cy="5077080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,9 +798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5036040</xdr:colOff>
+      <xdr:colOff>5035320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5172120</xdr:rowOff>
+      <xdr:rowOff>5171400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -814,7 +814,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11531160" y="23360040"/>
-          <a:ext cx="2347200" cy="5077800"/>
+          <a:ext cx="2346480" cy="5077080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,9 +835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2401920</xdr:rowOff>
+      <xdr:rowOff>2401200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -851,7 +851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8875440" y="11407320"/>
-          <a:ext cx="5077800" cy="2347200"/>
+          <a:ext cx="5077080" cy="2346480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,9 +872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3687480</xdr:colOff>
+      <xdr:colOff>3686760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>5009040</xdr:rowOff>
+      <xdr:rowOff>5008320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -888,7 +888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10181520" y="13797360"/>
-          <a:ext cx="2348280" cy="2564280"/>
+          <a:ext cx="2347560" cy="2563560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,9 +914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3895920</xdr:colOff>
+      <xdr:colOff>3895200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5110560</xdr:rowOff>
+      <xdr:rowOff>5109840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,7 +930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9432360" y="17414280"/>
-          <a:ext cx="2345040" cy="5075640"/>
+          <a:ext cx="2344320" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -951,9 +951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5558760</xdr:colOff>
+      <xdr:colOff>5558040</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2388240</xdr:rowOff>
+      <xdr:rowOff>2387520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -966,8 +966,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="27848520"/>
-          <a:ext cx="5558760" cy="2345040"/>
+          <a:off x="7881480" y="30983040"/>
+          <a:ext cx="5558040" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,9 +988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5567760</xdr:colOff>
+      <xdr:colOff>5567040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2371680</xdr:rowOff>
+      <xdr:rowOff>2370960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,8 +1003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7899480" y="35033400"/>
-          <a:ext cx="5549760" cy="2345040"/>
+          <a:off x="7899480" y="38167920"/>
+          <a:ext cx="5549040" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,9 +1025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5558400</xdr:colOff>
+      <xdr:colOff>5557680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2353680</xdr:rowOff>
+      <xdr:rowOff>2352960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1040,8 +1040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7863480" y="37458360"/>
-          <a:ext cx="5576400" cy="2345040"/>
+          <a:off x="7863480" y="40592880"/>
+          <a:ext cx="5575680" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,9 +1062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5549760</xdr:colOff>
+      <xdr:colOff>5549040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2423880</xdr:rowOff>
+      <xdr:rowOff>2423160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1077,8 +1077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7917480" y="30274200"/>
-          <a:ext cx="5513760" cy="2345040"/>
+          <a:off x="7917480" y="33408720"/>
+          <a:ext cx="5513040" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,9 +1099,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5531760</xdr:colOff>
+      <xdr:colOff>5531040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2969280</xdr:rowOff>
+      <xdr:rowOff>2968560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1114,45 +1114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7913160" y="42404400"/>
-          <a:ext cx="5500080" cy="2908080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5567760</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2354040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Изображение 18" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7899480" y="22505760"/>
-          <a:ext cx="5549760" cy="2345040"/>
+          <a:off x="7913160" y="45538560"/>
+          <a:ext cx="5499360" cy="2907360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,23 +1136,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5540760</xdr:colOff>
+      <xdr:colOff>5540040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2370960</xdr:rowOff>
+      <xdr:rowOff>2370240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Изображение 19" descr=""/>
+        <xdr:cNvPr id="16" name="Изображение 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7863480" y="39956760"/>
-          <a:ext cx="5558760" cy="2345040"/>
+          <a:off x="7863480" y="43090920"/>
+          <a:ext cx="5558040" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1210,23 +1173,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3729600</xdr:colOff>
+      <xdr:colOff>3728880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4528440</xdr:rowOff>
+      <xdr:rowOff>4527720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Изображение 9" descr=""/>
+        <xdr:cNvPr id="17" name="Изображение 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9264960" y="12753720"/>
-          <a:ext cx="2346120" cy="4467240"/>
+          <a:ext cx="2345400" cy="4466520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1247,23 +1210,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3784680</xdr:colOff>
+      <xdr:colOff>3783960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4364640</xdr:rowOff>
+      <xdr:rowOff>4363920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Изображение 7" descr=""/>
+        <xdr:cNvPr id="18" name="Изображение 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9335160" y="1532520"/>
-          <a:ext cx="2331000" cy="4251240"/>
+          <a:ext cx="2330280" cy="4250520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,23 +1247,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5567760</xdr:colOff>
+      <xdr:colOff>5567040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2881440</xdr:rowOff>
+      <xdr:rowOff>2880720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Изображение 6" descr=""/>
+        <xdr:cNvPr id="19" name="Изображение 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="24919560"/>
-          <a:ext cx="5567760" cy="2837880"/>
+          <a:off x="7881480" y="28054080"/>
+          <a:ext cx="5567040" cy="2837160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,13 +1284,50 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5383440</xdr:colOff>
+      <xdr:colOff>5382720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2423520</xdr:rowOff>
+      <xdr:rowOff>2422800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Изображение 23" descr=""/>
+        <xdr:cNvPr id="20" name="Изображение 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8186040" y="10230840"/>
+          <a:ext cx="5078160" cy="2347560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1063080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3385080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4255560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Изображение 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1336,7 +1336,44 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8186040" y="10230840"/>
+          <a:off x="8944560" y="5865120"/>
+          <a:ext cx="2322000" cy="4238280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>341280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5420160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Изображение 13" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8222760" y="35813880"/>
           <a:ext cx="5078880" cy="2348280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1352,29 +1389,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1063080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:colOff>233640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3385800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4256280</xdr:rowOff>
+      <xdr:colOff>5313240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2435760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Изображение 12" descr=""/>
+        <xdr:cNvPr id="23" name="Изображение 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8944560" y="5865120"/>
-          <a:ext cx="2322720" cy="4239000"/>
+          <a:off x="8115120" y="22583520"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,28 +1426,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>341280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:colOff>233640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2838960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5420880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:colOff>5313240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5187960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Изображение 13" descr=""/>
+        <xdr:cNvPr id="24" name="Изображение 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8222760" y="32679360"/>
+          <a:off x="8115120" y="25335720"/>
           <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1609,8 +1646,8 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A8" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1728,7 +1765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="187.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="434.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
@@ -1899,7 +1936,7 @@
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2354,39 +2391,39 @@
       <c r="D8" s="5"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
-      <c r="U8" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="X8" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="23"/>
-      <c r="AB8" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
+      <c r="AE8" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="AF8" s="5"/>
       <c r="AG8" s="24"/>
     </row>
@@ -2402,39 +2439,39 @@
       <c r="D9" s="5"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
-      <c r="N9" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="X9" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="Y9" s="5"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="23"/>
-      <c r="AB9" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
+      <c r="AE9" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="AF9" s="5"/>
       <c r="AG9" s="24"/>
     </row>
@@ -2450,39 +2487,39 @@
       <c r="D10" s="5"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
-      <c r="U10" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="X10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="23"/>
-      <c r="AB10" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="24"/>
     </row>
@@ -2677,7 +2714,7 @@
   </sheetPr>
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
